--- a/excel/工作11簿1.xlsx
+++ b/excel/工作11簿1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.PC-201901212215\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\zyx\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{E7E17CCA-F648-4603-8736-C669AFA67973}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71670CA-B211-4974-8529-F2253C005AD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA12B8E0-CFF3-4AFE-90DC-34FB841BD866}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EA12B8E0-CFF3-4AFE-90DC-34FB841BD866}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>赵六</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +37,70 @@
   </si>
   <si>
     <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>背心</t>
+  </si>
+  <si>
+    <t>短裤</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>骑行服</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>袜子</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>车胎和内胎</t>
+  </si>
+  <si>
+    <t>挡泥板</t>
+  </si>
+  <si>
+    <t>挂架</t>
+  </si>
+  <si>
+    <t>清洁剂</t>
+  </si>
+  <si>
+    <t>水袋背包</t>
+  </si>
+  <si>
+    <t>水壶和水壶架</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>自行车支架</t>
+  </si>
+  <si>
+    <t>自行车</t>
+  </si>
+  <si>
+    <t>公路自行车</t>
+  </si>
+  <si>
+    <t>旅行自行车</t>
+  </si>
+  <si>
+    <t>山地自行车</t>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -43,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +131,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -75,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -83,18 +157,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -413,7 +540,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +601,215 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD04B1A-1C6F-49F1-BA81-388079B3BD88}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3">
+        <v>125348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>538019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1819352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2482719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>19285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5">
+        <v>75395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>15118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5">
+        <v>26562</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A5:A13"/>
+    <mergeCell ref="A1:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>